--- a/output/damage/PHL_osm_fl_historical_damage_0.xlsx
+++ b/output/damage/PHL_osm_fl_historical_damage_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>F5_1_1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>41560.70576476752</v>
+        <v>580.3412040499114</v>
       </c>
       <c r="F2" t="n">
-        <v>7767.97516171602</v>
+        <v>435.2559030374337</v>
       </c>
       <c r="G2" t="n">
-        <v>112300.073610233</v>
+        <v>725.4265050623893</v>
       </c>
     </row>
     <row r="3">
@@ -500,12 +500,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rp0002</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>F5_1_10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>42456.76203274009</v>
+        <v>633.7920460953421</v>
       </c>
       <c r="F3" t="n">
-        <v>8440.017362695446</v>
+        <v>475.3440345715067</v>
       </c>
       <c r="G3" t="n">
-        <v>113420.1439451987</v>
+        <v>792.2400576191778</v>
       </c>
     </row>
     <row r="4">
@@ -529,12 +529,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rp0005</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>F5_1_11</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>48363.88653954082</v>
+        <v>697.1698681171362</v>
       </c>
       <c r="F4" t="n">
-        <v>12870.360742796</v>
+        <v>522.877401087852</v>
       </c>
       <c r="G4" t="n">
-        <v>120804.0495786996</v>
+        <v>871.4623351464201</v>
       </c>
     </row>
     <row r="5">
@@ -558,12 +558,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rp0010</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>F5_1_12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>57466.6581053972</v>
+        <v>823.9289686300747</v>
       </c>
       <c r="F5" t="n">
-        <v>19697.43941718829</v>
+        <v>617.9467264725561</v>
       </c>
       <c r="G5" t="n">
-        <v>132182.5140360201</v>
+        <v>1029.911210787594</v>
       </c>
     </row>
     <row r="6">
@@ -587,12 +587,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rp0025</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>F5_1_2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>72674.093332517</v>
+        <v>638.3753244549026</v>
       </c>
       <c r="F6" t="n">
-        <v>31103.01583752813</v>
+        <v>478.7814933411769</v>
       </c>
       <c r="G6" t="n">
-        <v>151191.8080699198</v>
+        <v>797.9691555686284</v>
       </c>
     </row>
     <row r="7">
@@ -616,12 +616,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>rp0050</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>F5_1_3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>84638.73451545017</v>
+        <v>754.443565264885</v>
       </c>
       <c r="F7" t="n">
-        <v>40076.49672472801</v>
+        <v>565.8326739486637</v>
       </c>
       <c r="G7" t="n">
-        <v>166147.6095485863</v>
+        <v>943.054456581106</v>
       </c>
     </row>
     <row r="8">
@@ -645,12 +645,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>rp0100</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>F5_1_4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>96722.84275775115</v>
+        <v>945.9561626013557</v>
       </c>
       <c r="F8" t="n">
-        <v>49139.57790645374</v>
+        <v>709.4671219510167</v>
       </c>
       <c r="G8" t="n">
-        <v>181252.7448514625</v>
+        <v>1182.445203251695</v>
       </c>
     </row>
     <row r="9">
@@ -674,12 +674,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rp0250</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>F5_1_5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -688,13 +688,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>186059.5973269</v>
+        <v>1040.552815802296</v>
       </c>
       <c r="F9" t="n">
-        <v>77020.92170952277</v>
+        <v>780.4146118517225</v>
       </c>
       <c r="G9" t="n">
-        <v>393807.2969881842</v>
+        <v>1300.691019752871</v>
       </c>
     </row>
     <row r="10">
@@ -703,12 +703,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rp0500</t>
+          <t>rp0001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>F5_1_6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>204738.6235984464</v>
+        <v>1229.742665734827</v>
       </c>
       <c r="F10" t="n">
-        <v>88352.7459131597</v>
+        <v>922.3069993011203</v>
       </c>
       <c r="G10" t="n">
-        <v>424060.5258055153</v>
+        <v>1537.178332168534</v>
       </c>
     </row>
     <row r="11">
@@ -732,27 +732,4087 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>rp0001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>F5_1_7</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>388.8286067134407</v>
+      </c>
+      <c r="F11" t="n">
+        <v>291.6214550350805</v>
+      </c>
+      <c r="G11" t="n">
+        <v>486.0357583918009</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>rp0001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>F5_1_8</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>427.7104304439794</v>
+      </c>
+      <c r="F12" t="n">
+        <v>320.7828228329846</v>
+      </c>
+      <c r="G12" t="n">
+        <v>534.6380380549742</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>rp0001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>F5_1_9</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>505.477534374408</v>
+      </c>
+      <c r="F13" t="n">
+        <v>379.108150780806</v>
+      </c>
+      <c r="G13" t="n">
+        <v>631.8469179680101</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>rp0001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>F5_2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>rp0001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>F5_3_1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1354.255965336225</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1774.486672864619</v>
+      </c>
+      <c r="G15" t="n">
+        <v>37102.90315989658</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>rp0001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>F5_3_2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2166.80954453796</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1774.486672864619</v>
+      </c>
+      <c r="G16" t="n">
+        <v>37102.90315989658</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>F5_1_1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>744.0008223921294</v>
+      </c>
+      <c r="F17" t="n">
+        <v>558.0006167940971</v>
+      </c>
+      <c r="G17" t="n">
+        <v>930.0010279901618</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>F5_1_10</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>812.5251149321645</v>
+      </c>
+      <c r="F18" t="n">
+        <v>609.3938361991234</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1015.656393665206</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>F5_1_11</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>893.7758539398006</v>
+      </c>
+      <c r="F19" t="n">
+        <v>670.3318904548504</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1117.219817424751</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>F5_1_12</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1056.281763169024</v>
+      </c>
+      <c r="F20" t="n">
+        <v>792.2113223767678</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1320.35220396128</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>F5_1_2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>818.4009046313424</v>
+      </c>
+      <c r="F21" t="n">
+        <v>613.8006784735068</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1023.001130789178</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>F5_1_3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>967.2010691097684</v>
+      </c>
+      <c r="F22" t="n">
+        <v>725.4008018323262</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1209.00133638721</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>F5_1_4</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1212.721340499171</v>
+      </c>
+      <c r="F23" t="n">
+        <v>909.5410053743782</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1515.901675623964</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>F5_1_5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1333.994803913273</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1000.496102934955</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1667.493504891592</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>F5_1_6</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1576.537299527527</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1182.402974645645</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1970.671624409409</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>F5_1_7</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>498.4805510027267</v>
+      </c>
+      <c r="F26" t="n">
+        <v>373.860413252045</v>
+      </c>
+      <c r="G26" t="n">
+        <v>623.1006887534085</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>F5_1_8</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>548.3272767388141</v>
+      </c>
+      <c r="F27" t="n">
+        <v>411.2454575541106</v>
+      </c>
+      <c r="G27" t="n">
+        <v>685.4090959235176</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>F5_1_9</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>648.0251594249398</v>
+      </c>
+      <c r="F28" t="n">
+        <v>486.0188695687049</v>
+      </c>
+      <c r="G28" t="n">
+        <v>810.0314492811749</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>F5_2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>F5_3_1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1354.255965336225</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1774.486672864619</v>
+      </c>
+      <c r="G30" t="n">
+        <v>37102.90315989658</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rp0002</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>F5_3_2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2166.80954453796</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1774.486672864619</v>
+      </c>
+      <c r="G31" t="n">
+        <v>37102.90315989658</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>F5_1_1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1562.859759033329</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1172.144819274997</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1953.574698791661</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>F5_1_10</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1706.802959233992</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1280.102219425494</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2133.50369904249</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>F5_1_11</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1877.479531846471</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1408.109648884853</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2346.849414808088</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>F5_1_12</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2218.841985348729</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1664.131489011547</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2773.552481685912</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>F5_1_2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1719.145734936662</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1289.359301202496</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2148.932168670827</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>F5_1_3</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2031.717686743327</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1523.788265057496</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2539.647108429159</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>F5_1_4</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2547.461407224326</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1910.596055418244</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3184.326759030408</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>F5_1_5</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2802.210340429949</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2101.657755322462</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3502.762925537436</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>F5_1_6</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>3311.698898563894</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2483.77417392292</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4139.623623204868</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>F5_1_7</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1047.11603855233</v>
+      </c>
+      <c r="F41" t="n">
+        <v>785.3370289142476</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1308.895048190413</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>F5_1_8</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1151.824849924373</v>
+      </c>
+      <c r="F42" t="n">
+        <v>863.8686374432795</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1439.781062405466</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>F5_1_9</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1361.251780945759</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1020.93883570932</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1701.5647261822</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>F5_2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>F5_3_1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1354.255965336225</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1774.486672864619</v>
+      </c>
+      <c r="G45" t="n">
+        <v>37102.90315989658</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>rp0005</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>F5_3_2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2166.80954453796</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1774.486672864619</v>
+      </c>
+      <c r="G46" t="n">
+        <v>37102.90315989658</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>F5_1_1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>3932.360032112139</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2949.270024084105</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4915.450040140175</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>F5_1_10</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>4294.539993616499</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3220.904995212376</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5368.174992020626</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>F5_1_11</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>4723.984624639777</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3542.988468479834</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5904.980780799722</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>F5_1_12</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>5582.897307532264</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4187.172980649199</v>
+      </c>
+      <c r="G50" t="n">
+        <v>6978.62163441533</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>F5_1_2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>4325.596035323354</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3244.197026492515</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5406.995044154193</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>F5_1_3</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>5112.068041745782</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3834.051031309336</v>
+      </c>
+      <c r="G52" t="n">
+        <v>6390.085052182228</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>F5_1_4</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>6409.746852342788</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4807.310139257091</v>
+      </c>
+      <c r="G53" t="n">
+        <v>8012.183565428486</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>F5_1_5</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>7050.728563830846</v>
+      </c>
+      <c r="F54" t="n">
+        <v>5288.046422873135</v>
+      </c>
+      <c r="G54" t="n">
+        <v>8813.410704788557</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>F5_1_6</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>8332.66856596103</v>
+      </c>
+      <c r="F55" t="n">
+        <v>6249.501424470773</v>
+      </c>
+      <c r="G55" t="n">
+        <v>10415.83570745129</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>F5_1_7</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2634.681221515134</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1976.01091613635</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3293.351526893917</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>F5_1_8</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2898.142317412867</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2173.606738059651</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3622.677896766084</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>F5_1_9</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>3425.087930054267</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2568.8159475407</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4281.359912567835</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>F5_2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>F5_3_1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1354.255965336225</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1774.486672864619</v>
+      </c>
+      <c r="G60" t="n">
+        <v>37102.90315989658</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>rp0010</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>F5_3_2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2166.80954453796</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1774.486672864619</v>
+      </c>
+      <c r="G61" t="n">
+        <v>37102.90315989658</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>F5_1_1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>7513.856644464958</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5635.392483348719</v>
+      </c>
+      <c r="G62" t="n">
+        <v>9392.320805581197</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>F5_1_10</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>8205.901189730032</v>
+      </c>
+      <c r="F63" t="n">
+        <v>6154.425892297525</v>
+      </c>
+      <c r="G63" t="n">
+        <v>10257.37648716254</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>F5_1_11</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>9026.473407912936</v>
+      </c>
+      <c r="F64" t="n">
+        <v>6769.855055934703</v>
+      </c>
+      <c r="G64" t="n">
+        <v>11283.09175989117</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>F5_1_12</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>10667.66259625399</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8000.746947190495</v>
+      </c>
+      <c r="G65" t="n">
+        <v>13334.57824531749</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>F5_1_2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>8265.242308911453</v>
+      </c>
+      <c r="F66" t="n">
+        <v>6198.93173168359</v>
+      </c>
+      <c r="G66" t="n">
+        <v>10331.55288613932</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>F5_1_3</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>9768.013637804446</v>
+      </c>
+      <c r="F67" t="n">
+        <v>7326.010228353335</v>
+      </c>
+      <c r="G67" t="n">
+        <v>12210.01704725555</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>F5_1_4</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>12247.58633047788</v>
+      </c>
+      <c r="F68" t="n">
+        <v>9185.689747858411</v>
+      </c>
+      <c r="G68" t="n">
+        <v>15309.48291309735</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>F5_1_5</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>13472.35838911824</v>
+      </c>
+      <c r="F69" t="n">
+        <v>10104.26879183868</v>
+      </c>
+      <c r="G69" t="n">
+        <v>16840.4479863978</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>F5_1_6</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>15921.85775442372</v>
+      </c>
+      <c r="F70" t="n">
+        <v>11941.39331581779</v>
+      </c>
+      <c r="G70" t="n">
+        <v>19902.32219302966</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>F5_1_7</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>5034.283951791522</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3775.712963843641</v>
+      </c>
+      <c r="G71" t="n">
+        <v>6292.854939739403</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>F5_1_8</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>5537.698921378099</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4153.274191033574</v>
+      </c>
+      <c r="G72" t="n">
+        <v>6922.123651722623</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>F5_1_9</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>6544.573612526503</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4908.430209394877</v>
+      </c>
+      <c r="G73" t="n">
+        <v>8180.717015658131</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>F5_2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>F5_3_1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1354.255965336225</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1774.486672864619</v>
+      </c>
+      <c r="G75" t="n">
+        <v>37102.90315989658</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>rp0025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>F5_3_2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2166.80954453796</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1774.486672864619</v>
+      </c>
+      <c r="G76" t="n">
+        <v>37102.90315989658</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>F5_1_1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>10239.52780970362</v>
+      </c>
+      <c r="F77" t="n">
+        <v>7679.645857277718</v>
+      </c>
+      <c r="G77" t="n">
+        <v>12799.40976212953</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>F5_1_10</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>11182.6133251846</v>
+      </c>
+      <c r="F78" t="n">
+        <v>8386.959993888453</v>
+      </c>
+      <c r="G78" t="n">
+        <v>13978.26665648076</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>F5_1_11</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>12300.8502633545</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9225.637697515876</v>
+      </c>
+      <c r="G79" t="n">
+        <v>15376.06282919312</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>F5_1_12</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>14537.3851255657</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10903.03884417428</v>
+      </c>
+      <c r="G80" t="n">
+        <v>18171.73140695713</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>F5_1_2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>11263.48059067398</v>
+      </c>
+      <c r="F81" t="n">
+        <v>8447.610443005489</v>
+      </c>
+      <c r="G81" t="n">
+        <v>14079.35073834248</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>F5_1_3</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>13311.38615261471</v>
+      </c>
+      <c r="F82" t="n">
+        <v>9983.539614461033</v>
+      </c>
+      <c r="G82" t="n">
+        <v>16639.23269076839</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>F5_1_4</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>16690.43032981691</v>
+      </c>
+      <c r="F83" t="n">
+        <v>12517.82274736268</v>
+      </c>
+      <c r="G83" t="n">
+        <v>20863.03791227113</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>F5_1_5</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>18359.49165856002</v>
+      </c>
+      <c r="F84" t="n">
+        <v>13769.61874392001</v>
+      </c>
+      <c r="G84" t="n">
+        <v>22949.36457320002</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>F5_1_6</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>21697.55333017484</v>
+      </c>
+      <c r="F85" t="n">
+        <v>16273.16499763113</v>
+      </c>
+      <c r="G85" t="n">
+        <v>27121.94166271855</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>F5_1_7</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>6860.483632501428</v>
+      </c>
+      <c r="F86" t="n">
+        <v>5145.362724376069</v>
+      </c>
+      <c r="G86" t="n">
+        <v>8575.604540626784</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>F5_1_8</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>7546.513699990147</v>
+      </c>
+      <c r="F87" t="n">
+        <v>5659.88527499261</v>
+      </c>
+      <c r="G87" t="n">
+        <v>9433.142124987682</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>F5_1_9</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>8918.634820838997</v>
+      </c>
+      <c r="F88" t="n">
+        <v>6688.976115629247</v>
+      </c>
+      <c r="G88" t="n">
+        <v>11148.29352604875</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>F5_2</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>F5_3_1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>1354.255965336225</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1774.486672864619</v>
+      </c>
+      <c r="G90" t="n">
+        <v>37102.90315989658</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>rp0050</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>F5_3_2</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>2166.80954453796</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1774.486672864619</v>
+      </c>
+      <c r="G91" t="n">
+        <v>37102.90315989658</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>F5_1_1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>13804.80461187844</v>
+      </c>
+      <c r="F92" t="n">
+        <v>10353.60345890883</v>
+      </c>
+      <c r="G92" t="n">
+        <v>17256.00576484805</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>F5_1_10</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>15076.26082699511</v>
+      </c>
+      <c r="F93" t="n">
+        <v>11307.19562024633</v>
+      </c>
+      <c r="G93" t="n">
+        <v>18845.32603374388</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>F5_1_11</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>16583.85402153592</v>
+      </c>
+      <c r="F94" t="n">
+        <v>12437.89051615194</v>
+      </c>
+      <c r="G94" t="n">
+        <v>20729.81752691991</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>F5_1_12</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>19599.1226310143</v>
+      </c>
+      <c r="F95" t="n">
+        <v>14699.34197326072</v>
+      </c>
+      <c r="G95" t="n">
+        <v>24498.90328876787</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>F5_1_2</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>15185.28507306629</v>
+      </c>
+      <c r="F96" t="n">
+        <v>11388.96380479971</v>
+      </c>
+      <c r="G96" t="n">
+        <v>18981.60634133286</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>F5_1_3</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>17946.24599544198</v>
+      </c>
+      <c r="F97" t="n">
+        <v>13459.68449658148</v>
+      </c>
+      <c r="G97" t="n">
+        <v>22432.80749430247</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>F5_1_4</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>22501.83151736186</v>
+      </c>
+      <c r="F98" t="n">
+        <v>16876.3736380214</v>
+      </c>
+      <c r="G98" t="n">
+        <v>28127.28939670233</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>F5_1_5</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>24752.03933521706</v>
+      </c>
+      <c r="F99" t="n">
+        <v>18564.0295014128</v>
+      </c>
+      <c r="G99" t="n">
+        <v>30940.04916902133</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>F5_1_6</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>29252.37275053074</v>
+      </c>
+      <c r="F100" t="n">
+        <v>21939.27956289806</v>
+      </c>
+      <c r="G100" t="n">
+        <v>36565.46593816344</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>F5_1_7</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>9249.219089958557</v>
+      </c>
+      <c r="F101" t="n">
+        <v>6936.914317468917</v>
+      </c>
+      <c r="G101" t="n">
+        <v>11561.5238624482</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>F5_1_8</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>10174.11633283539</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7630.587249626544</v>
+      </c>
+      <c r="G102" t="n">
+        <v>12717.64541604424</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>F5_1_9</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>12023.9930389858</v>
+      </c>
+      <c r="F103" t="n">
+        <v>9017.994779239347</v>
+      </c>
+      <c r="G103" t="n">
+        <v>15029.99129873225</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>F5_2</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>F5_3_1</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>1354.255965336225</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1774.486672864619</v>
+      </c>
+      <c r="G105" t="n">
+        <v>37102.90315989658</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>rp0100</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>F5_3_2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>2166.80954453796</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1774.486672864619</v>
+      </c>
+      <c r="G106" t="n">
+        <v>37102.90315989658</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>F5_1_1</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>21638.64082363755</v>
+      </c>
+      <c r="F107" t="n">
+        <v>16228.98061772817</v>
+      </c>
+      <c r="G107" t="n">
+        <v>27048.30102954695</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>F5_1_10</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>23631.6124835347</v>
+      </c>
+      <c r="F108" t="n">
+        <v>17723.70936265103</v>
+      </c>
+      <c r="G108" t="n">
+        <v>29539.51560441838</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>F5_1_11</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>25994.72218062951</v>
+      </c>
+      <c r="F109" t="n">
+        <v>19496.04163547214</v>
+      </c>
+      <c r="G109" t="n">
+        <v>32493.40272578689</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>F5_1_12</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>30721.07045296579</v>
+      </c>
+      <c r="F110" t="n">
+        <v>23040.80283972434</v>
+      </c>
+      <c r="G110" t="n">
+        <v>38401.33806620723</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>F5_1_2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>23802.50490600131</v>
+      </c>
+      <c r="F111" t="n">
+        <v>17851.87867950098</v>
+      </c>
+      <c r="G111" t="n">
+        <v>29753.13113250164</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>F5_1_3</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>28130.23307072882</v>
+      </c>
+      <c r="F112" t="n">
+        <v>21097.67480304662</v>
+      </c>
+      <c r="G112" t="n">
+        <v>35162.79133841103</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>F5_1_4</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>35270.98454252922</v>
+      </c>
+      <c r="F113" t="n">
+        <v>26453.23840689691</v>
+      </c>
+      <c r="G113" t="n">
+        <v>44088.73067816153</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>F5_1_5</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>38798.12166022613</v>
+      </c>
+      <c r="F114" t="n">
+        <v>29098.5912451696</v>
+      </c>
+      <c r="G114" t="n">
+        <v>48497.65207528267</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>F5_1_6</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>45852.26701747331</v>
+      </c>
+      <c r="F115" t="n">
+        <v>34389.20026310498</v>
+      </c>
+      <c r="G115" t="n">
+        <v>57315.33377184166</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>F5_1_7</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>14497.88935183716</v>
+      </c>
+      <c r="F116" t="n">
+        <v>10873.41701387787</v>
+      </c>
+      <c r="G116" t="n">
+        <v>18122.36168979646</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>F5_1_8</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>15947.63962357688</v>
+      </c>
+      <c r="F117" t="n">
+        <v>11960.72971768266</v>
+      </c>
+      <c r="G117" t="n">
+        <v>19934.5495294711</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>F5_1_9</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>18847.26904520297</v>
+      </c>
+      <c r="F118" t="n">
+        <v>14135.45178390223</v>
+      </c>
+      <c r="G118" t="n">
+        <v>23559.08630650373</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>F5_2</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>F5_3_1</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>3513.045986245053</v>
+      </c>
+      <c r="F120" t="n">
+        <v>4603.157337545634</v>
+      </c>
+      <c r="G120" t="n">
+        <v>96247.83523959051</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>rp0250</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>F5_3_2</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>5620.873577992085</v>
+      </c>
+      <c r="F121" t="n">
+        <v>4603.157337545634</v>
+      </c>
+      <c r="G121" t="n">
+        <v>96247.83523959051</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>F5_1_1</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>25890.62090920201</v>
+      </c>
+      <c r="F122" t="n">
+        <v>19417.96568190152</v>
+      </c>
+      <c r="G122" t="n">
+        <v>32363.27613650253</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>F5_1_10</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>28275.21031801619</v>
+      </c>
+      <c r="F123" t="n">
+        <v>21206.40773851215</v>
+      </c>
+      <c r="G123" t="n">
+        <v>35344.01289752024</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>F5_1_11</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>31102.6696687674</v>
+      </c>
+      <c r="F124" t="n">
+        <v>23327.00225157556</v>
+      </c>
+      <c r="G124" t="n">
+        <v>38878.33708595925</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>F5_1_12</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>36757.74257289585</v>
+      </c>
+      <c r="F125" t="n">
+        <v>27568.30692967189</v>
+      </c>
+      <c r="G125" t="n">
+        <v>45947.17821611981</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>F5_1_2</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>28479.68300012222</v>
+      </c>
+      <c r="F126" t="n">
+        <v>21359.76225009167</v>
+      </c>
+      <c r="G126" t="n">
+        <v>35599.60375015278</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>F5_1_3</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>33657.80718196262</v>
+      </c>
+      <c r="F127" t="n">
+        <v>25243.35538647197</v>
+      </c>
+      <c r="G127" t="n">
+        <v>42072.25897745328</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>F5_1_4</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>42201.71208199929</v>
+      </c>
+      <c r="F128" t="n">
+        <v>31651.28406149946</v>
+      </c>
+      <c r="G128" t="n">
+        <v>52752.14010249912</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>F5_1_5</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>46421.92955098702</v>
+      </c>
+      <c r="F129" t="n">
+        <v>34816.44716324027</v>
+      </c>
+      <c r="G129" t="n">
+        <v>58027.41193873379</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>F5_1_6</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>54862.21028633648</v>
+      </c>
+      <c r="F130" t="n">
+        <v>41146.65771475236</v>
+      </c>
+      <c r="G130" t="n">
+        <v>68577.76285792061</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>F5_1_7</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>17346.71600916535</v>
+      </c>
+      <c r="F131" t="n">
+        <v>13010.03700687401</v>
+      </c>
+      <c r="G131" t="n">
+        <v>21683.39501145669</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>F5_1_8</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>19081.34134929408</v>
+      </c>
+      <c r="F132" t="n">
+        <v>14311.00601197056</v>
+      </c>
+      <c r="G132" t="n">
+        <v>23851.6766866176</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>F5_1_9</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>22550.74623217756</v>
+      </c>
+      <c r="F133" t="n">
+        <v>16913.05967413317</v>
+      </c>
+      <c r="G133" t="n">
+        <v>28188.43279022196</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>F5_2</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>F5_3_1</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>3673.279390427953</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4813.111768279628</v>
+      </c>
+      <c r="G135" t="n">
+        <v>100637.7915185741</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>rp0500</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>F5_3_2</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>5877.247024684725</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4813.111768279628</v>
+      </c>
+      <c r="G136" t="n">
+        <v>100637.7915185741</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
           <t>rp1000</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>231874.802389058</v>
-      </c>
-      <c r="F11" t="n">
-        <v>104011.7610117231</v>
-      </c>
-      <c r="G11" t="n">
-        <v>470083.1007942574</v>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>F5_1_1</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>32793.68373662628</v>
+      </c>
+      <c r="F137" t="n">
+        <v>24595.26280246972</v>
+      </c>
+      <c r="G137" t="n">
+        <v>40992.10467078286</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>F5_1_10</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>35814.06208864051</v>
+      </c>
+      <c r="F138" t="n">
+        <v>26860.54656648039</v>
+      </c>
+      <c r="G138" t="n">
+        <v>44767.57761080065</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>F5_1_11</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>39395.39017080121</v>
+      </c>
+      <c r="F139" t="n">
+        <v>29546.54262810091</v>
+      </c>
+      <c r="G139" t="n">
+        <v>49244.2377135015</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>F5_1_12</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>46558.24165188099</v>
+      </c>
+      <c r="F140" t="n">
+        <v>34918.68123891074</v>
+      </c>
+      <c r="G140" t="n">
+        <v>58197.80206485124</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>F5_1_2</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>36073.05211028892</v>
+      </c>
+      <c r="F141" t="n">
+        <v>27054.78908271669</v>
+      </c>
+      <c r="G141" t="n">
+        <v>45091.31513786115</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>F5_1_3</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>42631.78885761418</v>
+      </c>
+      <c r="F142" t="n">
+        <v>31973.84164321063</v>
+      </c>
+      <c r="G142" t="n">
+        <v>53289.73607201772</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>F5_1_4</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>53453.70449070085</v>
+      </c>
+      <c r="F143" t="n">
+        <v>40090.27836802563</v>
+      </c>
+      <c r="G143" t="n">
+        <v>66817.13061337608</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>F5_1_5</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>58799.13353479845</v>
+      </c>
+      <c r="F144" t="n">
+        <v>44099.35015109884</v>
+      </c>
+      <c r="G144" t="n">
+        <v>73498.91691849807</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>F5_1_6</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>69489.79630623526</v>
+      </c>
+      <c r="F145" t="n">
+        <v>52117.34722967644</v>
+      </c>
+      <c r="G145" t="n">
+        <v>86862.24538279411</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>F5_1_7</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>21971.76810353961</v>
+      </c>
+      <c r="F146" t="n">
+        <v>16478.82607765471</v>
+      </c>
+      <c r="G146" t="n">
+        <v>27464.71012942452</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>F5_1_8</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>24168.88631886605</v>
+      </c>
+      <c r="F147" t="n">
+        <v>18126.66473914954</v>
+      </c>
+      <c r="G147" t="n">
+        <v>30211.10789858256</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>F5_1_9</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>28563.31806627734</v>
+      </c>
+      <c r="F148" t="n">
+        <v>21422.488549708</v>
+      </c>
+      <c r="G148" t="n">
+        <v>35704.14758284668</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>F5_2</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>F5_3_1</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>3953.217724862348</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5179.916018283006</v>
+      </c>
+      <c r="G150" t="n">
+        <v>108307.3349277356</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>rp1000</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>F5_3_2</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>6325.148359779757</v>
+      </c>
+      <c r="F151" t="n">
+        <v>5179.916018283006</v>
+      </c>
+      <c r="G151" t="n">
+        <v>108307.3349277356</v>
       </c>
     </row>
   </sheetData>
